--- a/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion-Escolaridad.xlsx
+++ b/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion-Escolaridad.xlsx
@@ -426,37 +426,37 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.334876218528649</v>
+        <v>0.0328798185941043</v>
       </c>
       <c r="C2">
-        <v>0.3204604426573356</v>
+        <v>0.02902745553985043</v>
       </c>
       <c r="D2">
-        <v>0.4000236786838436</v>
+        <v>0.0170043612987258</v>
       </c>
       <c r="E2">
-        <v>0.5086890506204463</v>
+        <v>0.0118061167879423</v>
       </c>
       <c r="F2">
-        <v>0.4836314518639184</v>
+        <v>0.00716288759837407</v>
       </c>
       <c r="G2">
-        <v>0.5507485068608408</v>
+        <v>0.01243154725170473</v>
       </c>
       <c r="H2">
-        <v>0.6124261114626823</v>
+        <v>0.01121032945169066</v>
       </c>
       <c r="I2">
-        <v>0.6674580013116677</v>
+        <v>0.00600037014603944</v>
       </c>
       <c r="J2">
-        <v>0.765656575983401</v>
+        <v>0.001856398132993877</v>
       </c>
       <c r="K2">
-        <v>0.8591497254235033</v>
+        <v>0.001048218029350103</v>
       </c>
       <c r="L2">
-        <v>0.8948412698412696</v>
+        <v>0.01091269841269842</v>
       </c>
     </row>
     <row r="3">
@@ -466,37 +466,37 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.272164284233472</v>
+        <v>0.0270383024029597</v>
       </c>
       <c r="C3">
-        <v>0.259266535690189</v>
+        <v>0.03108365166631143</v>
       </c>
       <c r="D3">
-        <v>0.3717475410264017</v>
+        <v>0.01962557995935889</v>
       </c>
       <c r="E3">
-        <v>0.3848594087581267</v>
+        <v>0.0297138470989089</v>
       </c>
       <c r="F3">
-        <v>0.3849698077163513</v>
+        <v>0.0252480956350666</v>
       </c>
       <c r="G3">
-        <v>0.4351505889217047</v>
+        <v>0.0268442666308431</v>
       </c>
       <c r="H3">
-        <v>0.5153501472851056</v>
+        <v>0.0239548245647589</v>
       </c>
       <c r="I3">
-        <v>0.5691672539890713</v>
+        <v>0.02295270978019673</v>
       </c>
       <c r="J3">
-        <v>0.6802072664391611</v>
+        <v>0.007080252077597466</v>
       </c>
       <c r="K3">
-        <v>0.7347413327363994</v>
+        <v>0.009516821407915869</v>
       </c>
       <c r="L3">
-        <v>0.7579576059877164</v>
+        <v>0.0334551678646898</v>
       </c>
     </row>
     <row r="4">
@@ -506,37 +506,37 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.278032444290008</v>
+        <v>0.020928207938768</v>
       </c>
       <c r="C4">
-        <v>0.279902829653764</v>
+        <v>0.01989440160208194</v>
       </c>
       <c r="D4">
-        <v>0.3439461557519013</v>
+        <v>0.01529731160413443</v>
       </c>
       <c r="E4">
-        <v>0.426467733579825</v>
+        <v>0.02246980856607217</v>
       </c>
       <c r="F4">
-        <v>0.430769764842037</v>
+        <v>0.0169934483227596</v>
       </c>
       <c r="G4">
-        <v>0.4848951425595287</v>
+        <v>0.0310527569049573</v>
       </c>
       <c r="H4">
-        <v>0.5885778324392242</v>
+        <v>0.01356576396703233</v>
       </c>
       <c r="I4">
-        <v>0.643380584771006</v>
+        <v>0.01314400506416592</v>
       </c>
       <c r="J4">
-        <v>0.7187496435550766</v>
+        <v>0.003023798163070063</v>
       </c>
       <c r="K4">
-        <v>0.80326068504733</v>
+        <v>0.003406204367085903</v>
       </c>
       <c r="L4">
-        <v>0.84044943174636</v>
+        <v>0.01671263258293975</v>
       </c>
     </row>
     <row r="5">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.244948522209697</v>
+        <v>0.0217818530216891</v>
       </c>
       <c r="C5">
-        <v>0.2710831300527783</v>
+        <v>0.02318263708627457</v>
       </c>
       <c r="D5">
-        <v>0.3542625551144756</v>
+        <v>0.01356396593239173</v>
       </c>
       <c r="E5">
-        <v>0.4191174661860806</v>
+        <v>0.02488615365536924</v>
       </c>
       <c r="F5">
-        <v>0.40756186213264</v>
+        <v>0.02986470123147457</v>
       </c>
       <c r="H5">
-        <v>0.5887221577199223</v>
+        <v>0.03104114609462904</v>
       </c>
       <c r="I5">
-        <v>0.6420226163665074</v>
+        <v>0.01782147620156227</v>
       </c>
       <c r="J5">
-        <v>0.727617040457497</v>
+        <v>0.007902167556687366</v>
       </c>
       <c r="K5">
-        <v>0.7929640525861257</v>
+        <v>0.005302742354778724</v>
       </c>
       <c r="L5">
-        <v>0.823124712379199</v>
+        <v>0.01888220638875225</v>
       </c>
     </row>
   </sheetData>
